--- a/data/outputs/OR_elsevier/4.xlsx
+++ b/data/outputs/OR_elsevier/4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS215"/>
+  <dimension ref="A1:BU215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +941,12 @@
           <t>2-s2.0-84930632732</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1920</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84935923144</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>790</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1365,6 +1387,12 @@
           <t>2-s2.0-84935036131</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>577</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1584,6 +1612,12 @@
           <t>2-s2.0-84933053191</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>419</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1797,6 +1831,12 @@
           <t>2-s2.0-84933502543</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>5739</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2010,6 +2050,12 @@
           <t>2-s2.0-84933521382</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1190</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2235,6 +2281,12 @@
           <t>2-s2.0-84936743646</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>3473</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2456,6 +2508,12 @@
           <t>2-s2.0-84937545454</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1813</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2681,6 +2739,12 @@
           <t>2-s2.0-84930645150</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>3653</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2890,6 +2954,12 @@
           <t>2-s2.0-84930664374</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1096</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3099,6 +3169,12 @@
           <t>2-s2.0-84930635336</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1930</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3308,6 +3384,12 @@
           <t>2-s2.0-84930664140</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1728</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3517,6 +3599,12 @@
           <t>2-s2.0-84936878981</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>889</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3734,6 +3822,12 @@
           <t>2-s2.0-84936872742</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>590</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3947,6 +4041,12 @@
           <t>2-s2.0-84934905730</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1069</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4166,6 +4266,12 @@
           <t>2-s2.0-84934901424</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>899</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4381,6 +4487,12 @@
           <t>2-s2.0-84935010546</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1090</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4586,6 +4698,12 @@
           <t>2-s2.0-84933527937</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2160</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4795,6 +4913,12 @@
           <t>2-s2.0-84933520646</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>487</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5008,6 +5132,12 @@
           <t>2-s2.0-84933517139</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>712</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5229,6 +5359,12 @@
           <t>2-s2.0-84935486275</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>3062</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5442,6 +5578,12 @@
           <t>2-s2.0-84936865978</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>796</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5663,6 +5805,12 @@
           <t>2-s2.0-84938524949</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1474</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5872,6 +6020,12 @@
           <t>2-s2.0-84937563992</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>393</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6095,6 +6249,12 @@
           <t>2-s2.0-84937554255</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>507</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6304,6 +6464,12 @@
           <t>2-s2.0-84929324932</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>899</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6525,6 +6691,12 @@
           <t>2-s2.0-84929630338</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>754</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6742,6 +6914,12 @@
           <t>2-s2.0-84929643507</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6963,6 +7141,12 @@
           <t>2-s2.0-84929631099</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1572</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7168,6 +7352,12 @@
           <t>2-s2.0-84929500851</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1774</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7377,6 +7567,12 @@
           <t>2-s2.0-84929455012</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1632</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7594,6 +7790,12 @@
           <t>2-s2.0-84929629122</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1140</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7811,6 +8013,12 @@
           <t>2-s2.0-84929643508</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>568</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8032,6 +8240,12 @@
           <t>2-s2.0-84930207164</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>994</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8237,6 +8451,12 @@
           <t>2-s2.0-84930210980</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>537</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8458,6 +8678,12 @@
           <t>2-s2.0-84930668795</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>676</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8679,6 +8905,12 @@
           <t>2-s2.0-84930683454</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1113</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8900,6 +9132,12 @@
           <t>2-s2.0-84930645221</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>603</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9117,6 +9355,12 @@
           <t>2-s2.0-84930627079</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>873</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9338,6 +9582,12 @@
           <t>2-s2.0-84934921777</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>786</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9559,6 +9809,12 @@
           <t>2-s2.0-84937903460</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>1869</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9772,6 +10028,12 @@
           <t>2-s2.0-84937870913</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>2735</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9993,6 +10255,12 @@
           <t>2-s2.0-84937966705</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>3825</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10214,6 +10482,12 @@
           <t>2-s2.0-84937968138</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1509</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10427,6 +10701,12 @@
           <t>2-s2.0-84937969642</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1150</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10640,6 +10920,12 @@
           <t>2-s2.0-84928725973</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>666</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10857,6 +11143,12 @@
           <t>2-s2.0-84929483879</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>711</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11074,6 +11366,12 @@
           <t>2-s2.0-84929469516</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1812</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11283,6 +11581,12 @@
           <t>2-s2.0-84929193213</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>2158</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11496,6 +11800,12 @@
           <t>2-s2.0-84929158912</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>824</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11709,6 +12019,12 @@
           <t>2-s2.0-84929324388</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>2031</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11930,6 +12246,12 @@
           <t>2-s2.0-84929377635</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>1082</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12147,6 +12469,12 @@
           <t>2-s2.0-84929629069</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>1831</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12367,6 +12695,12 @@
         <is>
           <t>2-s2.0-84937973126</t>
         </is>
+      </c>
+      <c r="BT55" t="n">
+        <v>3517</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="56">
@@ -12573,6 +12907,12 @@
           <t>2-s2.0-84937891576</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>478</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12790,6 +13130,12 @@
           <t>2-s2.0-84923450149</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>811</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13009,6 +13355,12 @@
           <t>2-s2.0-84937974831</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>656</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13222,6 +13574,12 @@
           <t>2-s2.0-84937830304</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>467</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13435,6 +13793,12 @@
           <t>2-s2.0-84937969260</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>3293</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13644,6 +14008,12 @@
           <t>2-s2.0-84937848553</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>3124</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13849,6 +14219,12 @@
           <t>2-s2.0-84937918983</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>1775</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14054,6 +14430,12 @@
           <t>2-s2.0-84937972480</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>2088</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14259,6 +14641,12 @@
           <t>2-s2.0-84937974527</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>2117</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14464,6 +14852,12 @@
           <t>2-s2.0-84937904263</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>1009</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14677,6 +15071,12 @@
           <t>2-s2.0-84937977286</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>1004</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14894,6 +15294,12 @@
           <t>2-s2.0-84937972097</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>3748</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15115,6 +15521,12 @@
           <t>2-s2.0-84937883446</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>1535</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15336,6 +15748,12 @@
           <t>2-s2.0-84937968472</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>1097</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15549,6 +15967,12 @@
           <t>2-s2.0-84937966102</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>451</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15774,6 +16198,12 @@
           <t>2-s2.0-84925065056</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>2428</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15995,6 +16425,12 @@
           <t>2-s2.0-84926187386</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>967</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16212,6 +16648,12 @@
           <t>2-s2.0-84925002960</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>927</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16425,6 +16867,12 @@
           <t>2-s2.0-84925115901</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>2489</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16630,6 +17078,12 @@
           <t>2-s2.0-84925423078</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>935</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16835,6 +17289,12 @@
           <t>2-s2.0-84961287998</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>2098</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17040,6 +17500,12 @@
           <t>2-s2.0-84926229071</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1323</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17261,6 +17727,12 @@
           <t>2-s2.0-84926162335</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>713</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17470,6 +17942,12 @@
           <t>2-s2.0-84926666838</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>1050</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17685,6 +18163,12 @@
           <t>2-s2.0-84926385255</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>1756</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17902,6 +18386,12 @@
           <t>2-s2.0-84927125958</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>2560</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18115,6 +18605,12 @@
           <t>2-s2.0-84928237008</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>719</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18336,6 +18832,12 @@
           <t>2-s2.0-84928227045</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>1097</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18553,6 +19055,12 @@
           <t>2-s2.0-84928253499</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>942</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18772,6 +19280,12 @@
           <t>2-s2.0-84927974103</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>2366</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18989,6 +19503,12 @@
           <t>2-s2.0-84924160599</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>844</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19210,6 +19730,12 @@
           <t>2-s2.0-84924227056</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>1488</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19431,6 +19957,12 @@
           <t>2-s2.0-84988239930</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1325</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19648,6 +20180,12 @@
           <t>2-s2.0-84924179920</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>712</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19869,6 +20407,12 @@
           <t>2-s2.0-84929323278</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>949</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20090,6 +20634,12 @@
           <t>2-s2.0-84924229845</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>1182</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20303,6 +20853,12 @@
           <t>2-s2.0-84924253816</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>1317</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20524,6 +21080,12 @@
           <t>2-s2.0-84924270165</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>945</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20745,6 +21307,12 @@
           <t>2-s2.0-84924612596</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>1931</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20950,6 +21518,12 @@
           <t>2-s2.0-84924914955</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>1431</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21155,6 +21729,12 @@
           <t>2-s2.0-84925147233</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>1334</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21360,6 +21940,12 @@
           <t>2-s2.0-84925134772</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>1385</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21581,6 +22167,12 @@
           <t>2-s2.0-84922577214</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>1706</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21802,6 +22394,12 @@
           <t>2-s2.0-84923864493</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>1432</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22019,6 +22617,12 @@
           <t>2-s2.0-84921987616</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>1087</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22224,6 +22828,12 @@
           <t>2-s2.0-84922020938</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>2917</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22425,6 +23035,12 @@
           <t>2-s2.0-84922570125</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>2709</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22646,6 +23262,12 @@
           <t>2-s2.0-84922551640</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>1119</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22855,6 +23477,12 @@
           <t>2-s2.0-84922495954</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>711</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23064,6 +23692,12 @@
           <t>2-s2.0-84922566944</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>1043</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23273,6 +23907,12 @@
           <t>2-s2.0-84923052502</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>568</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23482,6 +24122,12 @@
           <t>2-s2.0-84923927963</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>1121</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23687,6 +24333,12 @@
           <t>2-s2.0-84923928217</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>2528</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23908,6 +24560,12 @@
           <t>2-s2.0-84923874156</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>1182</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24129,6 +24787,12 @@
           <t>2-s2.0-84961291689</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>1031</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24334,6 +24998,12 @@
           <t>2-s2.0-84921367635</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>955</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24555,6 +25225,12 @@
           <t>2-s2.0-84921483558</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>716</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24768,6 +25444,12 @@
           <t>2-s2.0-84921385598</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>725</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24989,6 +25671,12 @@
           <t>2-s2.0-84921418897</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>1033</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25212,6 +25900,12 @@
           <t>2-s2.0-84921465639</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>387</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25425,6 +26119,12 @@
           <t>2-s2.0-84939151418</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>928</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25646,6 +26346,12 @@
           <t>2-s2.0-84939243566</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>780</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25871,6 +26577,12 @@
           <t>2-s2.0-84939131456</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>2147</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26086,6 +26798,12 @@
           <t>2-s2.0-84919768257</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>1836</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26307,6 +27025,12 @@
           <t>2-s2.0-84920143191</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>1847</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26528,6 +27252,12 @@
           <t>2-s2.0-84919775222</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>908</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26749,6 +27479,12 @@
           <t>2-s2.0-84919782839</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>923</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26970,6 +27706,12 @@
           <t>2-s2.0-84919798370</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>586</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27191,6 +27933,12 @@
           <t>2-s2.0-84919927934</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>1732</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27404,6 +28152,12 @@
           <t>2-s2.0-84919921430</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>1480</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27609,6 +28363,12 @@
           <t>2-s2.0-84920136354</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>648</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27832,6 +28592,12 @@
           <t>2-s2.0-84920734629</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>1347</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28053,6 +28819,12 @@
           <t>2-s2.0-84921027330</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>1026</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28268,6 +29040,12 @@
           <t>2-s2.0-84922390028</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>1297</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28489,6 +29267,12 @@
           <t>2-s2.0-84912019593</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>2893</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28694,6 +29478,12 @@
           <t>2-s2.0-84919651323</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>3632</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28909,6 +29699,12 @@
           <t>2-s2.0-84919787766</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>3105</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -29114,6 +29910,12 @@
           <t>2-s2.0-84912142744</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>1177</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29327,6 +30129,12 @@
           <t>2-s2.0-84912003581</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>1671</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29544,6 +30352,12 @@
           <t>2-s2.0-84912140450</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>549</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29761,6 +30575,12 @@
           <t>2-s2.0-85000094736</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>3072</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29978,6 +30798,12 @@
           <t>2-s2.0-85000083366</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>1565</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30193,6 +31019,12 @@
           <t>2-s2.0-84916918686</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>4194</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30410,6 +31242,12 @@
           <t>2-s2.0-85000167986</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>1204</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30623,6 +31461,12 @@
           <t>2-s2.0-84918570923</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>1882</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30839,6 +31683,12 @@
         <is>
           <t>2-s2.0-84919782705</t>
         </is>
+      </c>
+      <c r="BT141" t="n">
+        <v>802</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -31037,6 +31887,12 @@
           <t>2-s2.0-85027937680</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>1355</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31252,6 +32108,12 @@
           <t>2-s2.0-84919342454</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>1913</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31473,6 +32335,12 @@
           <t>2-s2.0-84918797126</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>2158</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31682,6 +32550,12 @@
           <t>2-s2.0-84918813150</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>4989</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31899,6 +32773,12 @@
           <t>2-s2.0-84918810326</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>2825</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -32122,6 +33002,12 @@
           <t>2-s2.0-84908637576</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>12920</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32339,6 +33225,12 @@
           <t>2-s2.0-84908627994</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32562,6 +33454,12 @@
           <t>2-s2.0-85000223764</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>645</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32779,6 +33677,12 @@
           <t>2-s2.0-84911169055</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>2572</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -33000,6 +33904,12 @@
           <t>2-s2.0-85000228401</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>2213</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -33205,6 +34115,12 @@
           <t>2-s2.0-84911091895</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>646</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -33418,6 +34334,12 @@
           <t>2-s2.0-85000241847</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>788</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33627,6 +34549,12 @@
           <t>2-s2.0-84965125135</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>426</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33832,6 +34760,12 @@
           <t>2-s2.0-84910609746</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>2672</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -34045,6 +34979,12 @@
           <t>2-s2.0-84919340915</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>5541</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -34266,6 +35206,12 @@
           <t>2-s2.0-84918784054</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>2591</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34485,6 +35431,12 @@
           <t>2-s2.0-84918822796</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>2422</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34702,6 +35654,12 @@
           <t>2-s2.0-84918803272</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>5730</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34917,6 +35875,12 @@
           <t>2-s2.0-85000016619</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>1089</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -35130,6 +36094,12 @@
           <t>2-s2.0-84907997374</t>
         </is>
       </c>
+      <c r="BT161" t="n">
+        <v>1233</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -35353,6 +36323,12 @@
           <t>2-s2.0-84971571136</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>3676</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35566,6 +36542,12 @@
           <t>2-s2.0-85000008361</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>3092</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35771,6 +36753,12 @@
           <t>2-s2.0-85000179871</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>1694</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -35994,6 +36982,12 @@
           <t>2-s2.0-84907979385</t>
         </is>
       </c>
+      <c r="BT165" t="n">
+        <v>2348</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -36215,6 +37209,12 @@
           <t>2-s2.0-84907979721</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>2134</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -36436,6 +37436,12 @@
           <t>2-s2.0-85000119474</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>1193</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36651,6 +37657,12 @@
           <t>2-s2.0-85000197779</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>1403</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36860,6 +37872,12 @@
           <t>2-s2.0-84988446699</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>1202</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -37075,6 +38093,12 @@
           <t>2-s2.0-84909581148</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>1422</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -37288,6 +38312,12 @@
           <t>2-s2.0-84912080742</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>3346</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37493,6 +38523,12 @@
           <t>2-s2.0-84913601353</t>
         </is>
       </c>
+      <c r="BT172" t="n">
+        <v>2350</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37702,6 +38738,12 @@
           <t>2-s2.0-84912076969</t>
         </is>
       </c>
+      <c r="BT173" t="n">
+        <v>1387</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -37923,6 +38965,12 @@
           <t>2-s2.0-84912111210</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>1665</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -38146,6 +39194,12 @@
           <t>2-s2.0-84907985178</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>1587</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -38351,6 +39405,12 @@
           <t>2-s2.0-84908316145</t>
         </is>
       </c>
+      <c r="BT176" t="n">
+        <v>3244</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -38556,6 +39616,12 @@
           <t>2-s2.0-84912084356</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>2545</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -38777,6 +39843,12 @@
           <t>2-s2.0-84912081286</t>
         </is>
       </c>
+      <c r="BT178" t="n">
+        <v>6353</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -39002,6 +40074,12 @@
           <t>2-s2.0-84912140862</t>
         </is>
       </c>
+      <c r="BT179" t="n">
+        <v>4065</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -39211,6 +40289,12 @@
           <t>2-s2.0-84913599394</t>
         </is>
       </c>
+      <c r="BT180" t="n">
+        <v>2826</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -39432,6 +40516,12 @@
           <t>2-s2.0-84912094984</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>4189</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -39649,6 +40739,12 @@
           <t>2-s2.0-84913526457</t>
         </is>
       </c>
+      <c r="BT182" t="n">
+        <v>3930</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -39862,6 +40958,12 @@
           <t>2-s2.0-84913553370</t>
         </is>
       </c>
+      <c r="BT183" t="n">
+        <v>8433</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -40083,6 +41185,12 @@
           <t>2-s2.0-84912141644</t>
         </is>
       </c>
+      <c r="BT184" t="n">
+        <v>2514</v>
+      </c>
+      <c r="BU184" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -40306,6 +41414,12 @@
           <t>2-s2.0-84908334849</t>
         </is>
       </c>
+      <c r="BT185" t="n">
+        <v>643</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -40519,6 +41633,12 @@
           <t>2-s2.0-84906542902</t>
         </is>
       </c>
+      <c r="BT186" t="n">
+        <v>883</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -40740,6 +41860,12 @@
           <t>2-s2.0-84906569395</t>
         </is>
       </c>
+      <c r="BT187" t="n">
+        <v>2528</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -40945,6 +42071,12 @@
           <t>2-s2.0-84906539504</t>
         </is>
       </c>
+      <c r="BT188" t="n">
+        <v>1980</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -41166,6 +42298,12 @@
           <t>2-s2.0-84906766162</t>
         </is>
       </c>
+      <c r="BT189" t="n">
+        <v>2113</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -41371,6 +42509,12 @@
           <t>2-s2.0-84906826211</t>
         </is>
       </c>
+      <c r="BT190" t="n">
+        <v>2779</v>
+      </c>
+      <c r="BU190" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -41584,6 +42728,12 @@
           <t>2-s2.0-84906830596</t>
         </is>
       </c>
+      <c r="BT191" t="n">
+        <v>885</v>
+      </c>
+      <c r="BU191" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -41801,6 +42951,12 @@
           <t>2-s2.0-84906876078</t>
         </is>
       </c>
+      <c r="BT192" t="n">
+        <v>1885</v>
+      </c>
+      <c r="BU192" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -42016,6 +43172,12 @@
           <t>2-s2.0-84907765052</t>
         </is>
       </c>
+      <c r="BT193" t="n">
+        <v>1199</v>
+      </c>
+      <c r="BU193" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -42225,6 +43387,12 @@
           <t>2-s2.0-84907718933</t>
         </is>
       </c>
+      <c r="BT194" t="n">
+        <v>2368</v>
+      </c>
+      <c r="BU194" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -42446,6 +43614,12 @@
           <t>2-s2.0-84907783988</t>
         </is>
       </c>
+      <c r="BT195" t="n">
+        <v>1398</v>
+      </c>
+      <c r="BU195" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -42659,6 +43833,12 @@
           <t>2-s2.0-84907720447</t>
         </is>
       </c>
+      <c r="BT196" t="n">
+        <v>530</v>
+      </c>
+      <c r="BU196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -42866,6 +44046,12 @@
           <t>2-s2.0-84988234105</t>
         </is>
       </c>
+      <c r="BT197" t="n">
+        <v>1759</v>
+      </c>
+      <c r="BU197" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -43071,6 +44257,12 @@
           <t>2-s2.0-85000140611</t>
         </is>
       </c>
+      <c r="BT198" t="n">
+        <v>1581</v>
+      </c>
+      <c r="BU198" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -43276,6 +44468,12 @@
           <t>2-s2.0-84907767762</t>
         </is>
       </c>
+      <c r="BT199" t="n">
+        <v>713</v>
+      </c>
+      <c r="BU199" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -43480,6 +44678,12 @@
         <is>
           <t>2-s2.0-84907796481</t>
         </is>
+      </c>
+      <c r="BT200" t="n">
+        <v>500</v>
+      </c>
+      <c r="BU200" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -43666,6 +44870,12 @@
           <t>2-s2.0-84912142883</t>
         </is>
       </c>
+      <c r="BT201" t="n">
+        <v>447</v>
+      </c>
+      <c r="BU201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -43879,6 +45089,12 @@
           <t>2-s2.0-84912099375</t>
         </is>
       </c>
+      <c r="BT202" t="n">
+        <v>807</v>
+      </c>
+      <c r="BU202" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -44096,6 +45312,12 @@
           <t>2-s2.0-84912134967</t>
         </is>
       </c>
+      <c r="BT203" t="n">
+        <v>856</v>
+      </c>
+      <c r="BU203" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -44301,6 +45523,12 @@
           <t>2-s2.0-84912129224</t>
         </is>
       </c>
+      <c r="BT204" t="n">
+        <v>942</v>
+      </c>
+      <c r="BU204" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -44520,6 +45748,12 @@
           <t>2-s2.0-84912535250</t>
         </is>
       </c>
+      <c r="BT205" t="n">
+        <v>1586</v>
+      </c>
+      <c r="BU205" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -44731,6 +45965,12 @@
           <t>2-s2.0-84912138502</t>
         </is>
       </c>
+      <c r="BT206" t="n">
+        <v>1844</v>
+      </c>
+      <c r="BU206" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -44942,6 +46182,12 @@
           <t>2-s2.0-85000244620</t>
         </is>
       </c>
+      <c r="BT207" t="n">
+        <v>761</v>
+      </c>
+      <c r="BU207" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -45163,6 +46409,12 @@
           <t>2-s2.0-84906839581</t>
         </is>
       </c>
+      <c r="BT208" t="n">
+        <v>992</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -45384,6 +46636,12 @@
           <t>2-s2.0-84907804974</t>
         </is>
       </c>
+      <c r="BT209" t="n">
+        <v>1468</v>
+      </c>
+      <c r="BU209" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -45605,6 +46863,12 @@
           <t>2-s2.0-84907737959</t>
         </is>
       </c>
+      <c r="BT210" t="n">
+        <v>3283</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -45822,6 +47086,12 @@
           <t>2-s2.0-85000059488</t>
         </is>
       </c>
+      <c r="BT211" t="n">
+        <v>4545</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -46027,6 +47297,12 @@
           <t>2-s2.0-85000097290</t>
         </is>
       </c>
+      <c r="BT212" t="n">
+        <v>3627</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -46244,6 +47520,12 @@
           <t>2-s2.0-84912102087</t>
         </is>
       </c>
+      <c r="BT213" t="n">
+        <v>1162</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -46465,6 +47747,12 @@
           <t>2-s2.0-84912085788</t>
         </is>
       </c>
+      <c r="BT214" t="n">
+        <v>699</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -46666,6 +47954,12 @@
           <t>2-s2.0-84912535565</t>
         </is>
       </c>
+      <c r="BT215" t="n">
+        <v>1090</v>
+      </c>
+      <c r="BU215" t="n">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
